--- a/plan/life_cost/september.xlsx
+++ b/plan/life_cost/september.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>日期</t>
   </si>
@@ -64,7 +64,7 @@
   </si>
   <si>
     <t xml:space="preserve">午饭：13,过去水：1.5
-,红树林内喝水4+4=8,回来吃西瓜7.9,和杨，二哥吃饭214
+,红树林内喝水4+4=8,回来吃西瓜7.9,和杨玩虚拟狩猎，和杨，二哥吃饭214
 </t>
   </si>
   <si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>9,10,11月</t>
+  </si>
+  <si>
+    <t>流塘小学旁边</t>
+  </si>
+  <si>
+    <t>早餐5.5,和辉园博园矿泉水:6,午餐125</t>
+  </si>
+  <si>
+    <t>车费去回:3+2=5</t>
   </si>
 </sst>
 </file>
@@ -79,10 +88,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -93,9 +102,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,11 +123,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,23 +139,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,57 +162,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,9 +176,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,15 +224,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,13 +255,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,49 +357,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,115 +411,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,6 +459,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -464,50 +497,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +531,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -545,10 +554,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,137 +566,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -696,6 +705,9 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1044,14 +1056,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="12" max="12" width="20.75" customWidth="1"/>
     <col min="18" max="18" width="14.375" customWidth="1"/>
     <col min="24" max="24" width="10.125" customWidth="1"/>
@@ -1149,12 +1162,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="67.5" spans="1:26">
+    <row r="3" ht="81" spans="1:26">
       <c r="A3" s="2">
         <v>42616</v>
       </c>
       <c r="K3">
-        <v>244.4</v>
+        <v>274.4</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>15</v>
@@ -1175,7 +1188,33 @@
         <v>17</v>
       </c>
       <c r="Z3">
-        <v>501.4</v>
+        <v>531.4</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:26">
+      <c r="A4" s="2">
+        <v>42617</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>136.5</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z4">
+        <v>153.5</v>
       </c>
     </row>
   </sheetData>

--- a/plan/life_cost/september.xlsx
+++ b/plan/life_cost/september.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>日期</t>
   </si>
@@ -81,6 +81,16 @@
   </si>
   <si>
     <t>车费去回:3+2=5</t>
+  </si>
+  <si>
+    <t>早餐5.5,中餐：鱼粉加
+煎蛋15，晚餐：梅菜扣肉12</t>
+  </si>
+  <si>
+    <t>房租800
+水：7*7=49
+电：97*1.3=126
+卫生费10</t>
   </si>
 </sst>
 </file>
@@ -88,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -103,28 +113,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,33 +143,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,6 +181,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -185,7 +204,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,35 +219,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,17 +249,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,85 +265,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,97 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,15 +483,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -502,6 +503,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,17 +548,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,17 +1066,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="12" max="12" width="20.75" customWidth="1"/>
     <col min="18" max="18" width="14.375" customWidth="1"/>
+    <col min="21" max="21" width="12.875" customWidth="1"/>
     <col min="24" max="24" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1204,7 +1215,7 @@
       <c r="K4">
         <v>136.5</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q4">
@@ -1213,8 +1224,38 @@
       <c r="R4" t="s">
         <v>20</v>
       </c>
+      <c r="U4" s="4"/>
       <c r="Z4">
         <v>153.5</v>
+      </c>
+    </row>
+    <row r="5" ht="67.5" spans="1:26">
+      <c r="A5" s="2">
+        <v>42618</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>32.5</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5">
+        <v>985</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z5">
+        <v>1004.5</v>
       </c>
     </row>
   </sheetData>

--- a/plan/life_cost/september.xlsx
+++ b/plan/life_cost/september.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>日期</t>
   </si>
@@ -91,6 +91,12 @@
 水：7*7=49
 电：97*1.3=126
 卫生费10</t>
+  </si>
+  <si>
+    <t>早餐8+晚餐和明95</t>
+  </si>
+  <si>
+    <t>车费去回2+2=4</t>
   </si>
 </sst>
 </file>
@@ -99,8 +105,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -112,8 +118,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,29 +194,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -159,17 +203,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,8 +224,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,67 +257,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,19 +271,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,157 +391,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,30 +462,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -507,6 +489,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -518,6 +509,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,6 +545,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -547,15 +562,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,137 +582,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,9 +721,6 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1066,13 +1069,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="12" max="12" width="20.75" customWidth="1"/>
@@ -1224,7 +1227,7 @@
       <c r="R4" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="4"/>
+      <c r="U4" s="3"/>
       <c r="Z4">
         <v>153.5</v>
       </c>
@@ -1245,17 +1248,37 @@
       <c r="K5">
         <v>32.5</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="T5">
         <v>985</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Z5">
         <v>1004.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="2">
+        <v>42619</v>
+      </c>
+      <c r="K6">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z6">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/plan/life_cost/september.xlsx
+++ b/plan/life_cost/september.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>日期</t>
   </si>
@@ -97,6 +97,16 @@
   </si>
   <si>
     <t>车费去回2+2=4</t>
+  </si>
+  <si>
+    <t>早餐12+2元矿泉水
+中餐14晚餐18</t>
+  </si>
+  <si>
+    <t>5+16+16=37</t>
+  </si>
+  <si>
+    <t>车费去2</t>
   </si>
 </sst>
 </file>
@@ -104,9 +114,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -120,14 +130,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -142,50 +144,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -194,28 +152,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -224,6 +160,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -232,8 +234,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -241,22 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,187 +281,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,6 +472,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,9 +510,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,21 +558,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -542,26 +572,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,10 +580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,19 +592,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,112 +613,112 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,13 +1079,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" topLeftCell="M8" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="12" max="12" width="20.75" customWidth="1"/>
@@ -1279,6 +1289,52 @@
       </c>
       <c r="Z6">
         <v>107</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:26">
+      <c r="A7" s="2">
+        <v>42620</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>46</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="2">
+        <v>42621</v>
+      </c>
+      <c r="K8">
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/plan/life_cost/september.xlsx
+++ b/plan/life_cost/september.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>日期</t>
   </si>
@@ -107,6 +107,16 @@
   </si>
   <si>
     <t>车费去2</t>
+  </si>
+  <si>
+    <t>早餐酸辣面5
+中餐手撕鸡18
+晚餐套餐14</t>
+  </si>
+  <si>
+    <t>早餐酸辣面5
+中餐套餐14
+晚餐4.5桔子+4.5花生</t>
   </si>
 </sst>
 </file>
@@ -114,10 +124,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -128,8 +138,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -145,128 +252,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,19 +291,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,144 +459,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -456,12 +472,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,9 +487,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,18 +523,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -530,15 +549,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,10 +590,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,137 +602,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,6 +741,9 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1079,13 +1092,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M8" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="12" max="12" width="20.75" customWidth="1"/>
@@ -1335,6 +1348,54 @@
       </c>
       <c r="Z8">
         <v>39</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:26">
+      <c r="A9" s="2">
+        <v>42622</v>
+      </c>
+      <c r="K9">
+        <v>37</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" ht="40.5" spans="1:26">
+      <c r="A10" s="2">
+        <v>42623</v>
+      </c>
+      <c r="K10">
+        <v>28</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
+        <v>42624</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/plan/life_cost/september.xlsx
+++ b/plan/life_cost/september.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18585" windowHeight="7860"/>
+    <workbookView windowWidth="18570" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>日期</t>
   </si>
@@ -117,6 +117,10 @@
     <t>早餐酸辣面5
 中餐套餐14
 晚餐4.5桔子+4.5花生</t>
+  </si>
+  <si>
+    <t>中餐鱼粉13
+晚餐汤饭12+9.8水果</t>
   </si>
 </sst>
 </file>
@@ -124,9 +128,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -139,15 +143,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,59 +158,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,16 +172,93 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,39 +271,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,187 +295,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,6 +486,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -506,16 +525,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,15 +544,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,17 +563,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,7 +606,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,124 +615,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,8 +1098,8 @@
   <sheetPr/>
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1357,7 +1361,7 @@
       <c r="K9">
         <v>37</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q9">
@@ -1377,7 +1381,7 @@
       <c r="K10">
         <v>28</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="Q10">
@@ -1390,12 +1394,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" ht="27" spans="1:26">
       <c r="A11" s="2">
         <v>42624</v>
       </c>
       <c r="B11">
         <v>12</v>
+      </c>
+      <c r="K11">
+        <v>34.8</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z11">
+        <v>46.8</v>
       </c>
     </row>
   </sheetData>

--- a/plan/life_cost/september.xlsx
+++ b/plan/life_cost/september.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>日期</t>
   </si>
@@ -121,6 +121,12 @@
   <si>
     <t>中餐鱼粉13
 晚餐汤饭12+9.8水果</t>
+  </si>
+  <si>
+    <t>早餐5.5+中餐18+晚餐18.5</t>
+  </si>
+  <si>
+    <t>早餐5+中餐18+晚餐17</t>
   </si>
 </sst>
 </file>
@@ -128,10 +134,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -143,21 +149,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,83 +223,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,11 +268,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,187 +301,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,41 +492,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -542,8 +513,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,15 +574,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,10 +600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,137 +612,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -745,9 +751,6 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1096,16 +1099,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="12" max="12" width="20.75" customWidth="1"/>
+    <col min="12" max="12" width="26.125" customWidth="1"/>
     <col min="18" max="18" width="14.375" customWidth="1"/>
     <col min="21" max="21" width="12.875" customWidth="1"/>
     <col min="24" max="24" width="10.125" customWidth="1"/>
@@ -1404,11 +1407,56 @@
       <c r="K11">
         <v>34.8</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="Z11">
         <v>46.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="2">
+        <v>42625</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="2">
+        <v>42626</v>
+      </c>
+      <c r="K13">
+        <v>40</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="26:26">
+      <c r="Z14">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/plan/life_cost/september.xlsx
+++ b/plan/life_cost/september.xlsx
@@ -134,10 +134,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -149,30 +149,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,29 +191,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,44 +231,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -268,9 +239,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,6 +248,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -286,7 +264,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,6 +301,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -313,19 +409,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,151 +481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,39 +492,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -546,18 +513,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -574,6 +530,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,145 +600,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,10 +1099,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView tabSelected="1" topLeftCell="P11" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1206,7 +1206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="81" spans="1:26">
+    <row r="3" ht="67.5" spans="1:26">
       <c r="A3" s="2">
         <v>42616</v>
       </c>
@@ -1454,9 +1454,26 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="26:26">
+    <row r="14" spans="1:26">
+      <c r="A14" s="2">
+        <v>42627</v>
+      </c>
       <c r="Z14">
         <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="2">
+        <v>42628</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="K15">
+        <v>140</v>
+      </c>
+      <c r="Z15">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
